--- a/docs/StructureDefinition-VAPatientServiceConnectionObservation.xlsx
+++ b/docs/StructureDefinition-VAPatientServiceConnectionObservation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="530">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -985,6 +982,9 @@
     <t>Observation.value[x].coding.system</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
+  </si>
+  <si>
     <t>Observation.value[x].coding.version</t>
   </si>
   <si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -2836,7 +2839,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2855,15 +2858,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2900,14 +2905,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2937,7 +2944,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2952,7 +2959,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2971,16 +2978,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3030,7 +3037,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3068,7 +3075,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3091,17 +3098,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3150,7 +3157,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3168,19 +3175,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3188,11 +3195,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3211,17 +3218,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3270,7 +3277,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3288,16 +3295,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3308,7 +3315,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3334,95 +3341,95 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3430,7 +3437,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3453,19 +3460,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3490,14 +3497,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3514,7 +3521,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3541,10 +3548,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3552,11 +3559,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3575,17 +3582,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3610,69 +3617,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3695,13 +3702,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3752,7 +3759,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3779,7 +3786,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3790,11 +3797,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3813,16 +3820,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3860,19 +3867,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3899,7 +3906,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3910,7 +3917,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3933,19 +3940,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3994,7 +4001,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -4018,10 +4025,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -4032,7 +4039,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4055,13 +4062,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4112,7 +4119,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4139,7 +4146,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4150,11 +4157,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4173,16 +4180,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4220,19 +4227,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4259,7 +4266,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4270,7 +4277,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4296,92 +4303,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4392,7 +4399,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4415,16 +4422,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4474,34 +4481,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4512,7 +4519,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4538,90 +4545,90 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4632,7 +4639,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4655,17 +4662,17 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4714,34 +4721,34 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4752,7 +4759,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4775,19 +4782,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4836,34 +4843,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4874,7 +4881,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4897,19 +4904,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4958,34 +4965,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4996,7 +5003,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5019,19 +5026,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5080,7 +5087,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5098,19 +5105,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5118,11 +5125,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5141,19 +5148,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5202,7 +5209,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5220,19 +5227,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5240,11 +5247,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5263,19 +5270,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5324,7 +5331,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5342,19 +5349,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5362,7 +5369,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5385,16 +5392,16 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5444,7 +5451,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5468,13 +5475,13 @@
         <v>46</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5482,7 +5489,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5505,17 +5512,17 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5564,7 +5571,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5582,19 +5589,19 @@
         <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5602,7 +5609,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5625,19 +5632,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5674,58 +5681,58 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH32" t="s" s="2">
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>46</v>
@@ -5747,19 +5754,19 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5808,7 +5815,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5817,36 +5824,36 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5869,13 +5876,13 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5926,7 +5933,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5953,7 +5960,7 @@
         <v>46</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5964,11 +5971,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5987,16 +5994,16 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6034,19 +6041,19 @@
         <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6073,7 +6080,7 @@
         <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -6084,7 +6091,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6107,19 +6114,19 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6168,7 +6175,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6192,10 +6199,10 @@
         <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -6206,7 +6213,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6229,13 +6236,13 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6286,7 +6293,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6313,7 +6320,7 @@
         <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>46</v>
@@ -6324,11 +6331,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6347,16 +6354,16 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6394,19 +6401,19 @@
         <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6433,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6442,9 +6449,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6458,7 +6465,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>46</v>
@@ -6470,23 +6477,23 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>46</v>
@@ -6528,34 +6535,34 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6589,16 +6596,16 @@
         <v>58</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6648,34 +6655,34 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6721,7 +6728,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6770,7 +6777,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6794,10 +6801,10 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6831,17 +6838,17 @@
         <v>58</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6890,34 +6897,34 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6951,19 +6958,19 @@
         <v>58</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>46</v>
@@ -7012,34 +7019,34 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -7073,19 +7080,19 @@
         <v>58</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
@@ -7134,34 +7141,34 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7172,7 +7179,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>319</v>
@@ -7200,16 +7207,16 @@
         <v>320</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>46</v>
@@ -7258,7 +7265,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7267,36 +7274,36 @@
         <v>57</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7319,13 +7326,13 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7376,7 +7383,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7403,7 +7410,7 @@
         <v>46</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7414,11 +7421,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7437,16 +7444,16 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7484,19 +7491,19 @@
         <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7523,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7720,7 +7727,7 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>337</v>
@@ -7780,7 +7787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>342</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>57</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>46</v>
@@ -7805,7 +7812,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>343</v>
@@ -7822,7 +7829,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>46</v>
@@ -7864,7 +7871,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7888,10 +7895,10 @@
         <v>46</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7902,7 +7909,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7928,14 +7935,14 @@
         <v>70</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
@@ -7984,7 +7991,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7993,7 +8000,7 @@
         <v>57</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>46</v>
@@ -8008,10 +8015,10 @@
         <v>46</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
@@ -8020,9 +8027,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8036,7 +8043,7 @@
         <v>57</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>46</v>
@@ -8048,23 +8055,23 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>46</v>
@@ -8106,7 +8113,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8130,10 +8137,10 @@
         <v>46</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -8144,7 +8151,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8167,19 +8174,19 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
@@ -8207,10 +8214,10 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>46</v>
@@ -8228,7 +8235,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8237,7 +8244,7 @@
         <v>57</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>46</v>
@@ -8246,7 +8253,7 @@
         <v>46</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>46</v>
@@ -8255,7 +8262,7 @@
         <v>100</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8266,11 +8273,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8289,17 +8296,17 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>46</v>
@@ -8327,10 +8334,10 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8348,7 +8355,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8369,24 +8376,24 @@
         <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8409,17 +8416,17 @@
         <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8468,7 +8475,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8486,16 +8493,16 @@
         <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8506,7 +8513,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8529,16 +8536,16 @@
         <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8564,13 +8571,13 @@
         <v>46</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>46</v>
@@ -8588,7 +8595,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8609,24 +8616,24 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8649,19 +8656,19 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8686,13 +8693,13 @@
         <v>46</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>46</v>
@@ -8710,7 +8717,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8734,10 +8741,10 @@
         <v>46</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8748,7 +8755,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8771,16 +8778,16 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8830,7 +8837,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8851,24 +8858,24 @@
         <v>46</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8891,16 +8898,16 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8950,7 +8957,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8971,24 +8978,24 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9011,19 +9018,19 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -9072,7 +9079,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -9084,7 +9091,7 @@
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>46</v>
@@ -9096,10 +9103,10 @@
         <v>46</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -9110,7 +9117,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9133,13 +9140,13 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9190,7 +9197,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9217,7 +9224,7 @@
         <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9228,11 +9235,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9251,16 +9258,16 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9310,7 +9317,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9337,7 +9344,7 @@
         <v>46</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9348,11 +9355,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9371,16 +9378,16 @@
         <v>58</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9430,7 +9437,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9468,7 +9475,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9491,13 +9498,13 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9548,7 +9555,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9557,7 +9564,7 @@
         <v>57</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>46</v>
@@ -9572,10 +9579,10 @@
         <v>46</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9586,7 +9593,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9609,13 +9616,13 @@
         <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9666,7 +9673,7 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
@@ -9675,7 +9682,7 @@
         <v>57</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>46</v>
@@ -9690,10 +9697,10 @@
         <v>46</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
@@ -9704,7 +9711,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9727,19 +9734,19 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>46</v>
@@ -9767,10 +9774,10 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>46</v>
@@ -9788,7 +9795,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9809,13 +9816,13 @@
         <v>46</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9826,7 +9833,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9849,19 +9856,19 @@
         <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>46</v>
@@ -9886,13 +9893,13 @@
         <v>46</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>46</v>
@@ -9910,7 +9917,7 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9931,13 +9938,13 @@
         <v>46</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9948,7 +9955,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9971,17 +9978,17 @@
         <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>46</v>
@@ -10030,7 +10037,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -10057,7 +10064,7 @@
         <v>46</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -10068,7 +10075,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10091,13 +10098,13 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10148,7 +10155,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10172,10 +10179,10 @@
         <v>46</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10186,7 +10193,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10209,19 +10216,19 @@
         <v>58</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>46</v>
@@ -10270,7 +10277,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10282,7 +10289,7 @@
         <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>46</v>
@@ -10294,10 +10301,10 @@
         <v>46</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10308,7 +10315,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10331,13 +10338,13 @@
         <v>46</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10388,7 +10395,7 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10415,7 +10422,7 @@
         <v>46</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>46</v>
@@ -10426,11 +10433,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10449,16 +10456,16 @@
         <v>46</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10508,7 +10515,7 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10535,7 +10542,7 @@
         <v>46</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>46</v>
@@ -10546,11 +10553,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10569,16 +10576,16 @@
         <v>58</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10628,7 +10635,7 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
@@ -10666,7 +10673,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10692,16 +10699,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>46</v>
@@ -10726,13 +10733,13 @@
         <v>46</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>46</v>
@@ -10750,7 +10757,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10777,7 +10784,7 @@
         <v>100</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10788,7 +10795,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10811,13 +10818,13 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10868,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>57</v>
@@ -10895,7 +10902,7 @@
         <v>46</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10906,7 +10913,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10929,19 +10936,19 @@
         <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>46</v>
@@ -10990,7 +10997,7 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -11002,7 +11009,7 @@
         <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>46</v>
@@ -11014,10 +11021,10 @@
         <v>46</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -11028,7 +11035,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11051,13 +11058,13 @@
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11108,7 +11115,7 @@
         <v>46</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -11135,7 +11142,7 @@
         <v>46</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
@@ -11146,11 +11153,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11169,16 +11176,16 @@
         <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11228,7 +11235,7 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11255,7 +11262,7 @@
         <v>46</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11266,11 +11273,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11289,16 +11296,16 @@
         <v>58</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11348,7 +11355,7 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11386,7 +11393,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11409,17 +11416,17 @@
         <v>58</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>46</v>
@@ -11444,14 +11451,14 @@
         <v>46</v>
       </c>
       <c r="W80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>46</v>
       </c>
@@ -11468,7 +11475,7 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>57</v>
@@ -11489,16 +11496,16 @@
         <v>46</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>46</v>
@@ -11506,7 +11513,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11529,19 +11536,19 @@
         <v>58</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11590,7 +11597,7 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11611,24 +11618,24 @@
         <v>46</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11651,19 +11658,19 @@
         <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11691,10 +11698,10 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>46</v>
@@ -11712,7 +11719,7 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11721,7 +11728,7 @@
         <v>57</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>46</v>
@@ -11739,7 +11746,7 @@
         <v>100</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11750,11 +11757,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11773,19 +11780,19 @@
         <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11813,10 +11820,10 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>46</v>
@@ -11834,7 +11841,7 @@
         <v>46</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
@@ -11855,24 +11862,24 @@
         <v>46</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11898,16 +11905,16 @@
         <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
@@ -11956,7 +11963,7 @@
         <v>46</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
@@ -11980,10 +11987,10 @@
         <v>46</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>46</v>

--- a/docs/StructureDefinition-VAPatientServiceConnectionObservation.xlsx
+++ b/docs/StructureDefinition-VAPatientServiceConnectionObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="543">
   <si>
     <t>Path</t>
   </si>
@@ -914,10 +914,6 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Quantity</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1010,144 +1006,6 @@
   </si>
   <si>
     <t>Observation.value[x].text</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Observation.value[x].value</t>
-  </si>
-  <si>
-    <t>SERVICE CONNECTED PERCENTAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>If this applicant is service connected (SERVICE CONNECTED prompt must be answered YES) enter the service connected percentage [a number between 0-100].  Once eligibility has been verified only users who hold the designated security key may enter/edit this field.  Field may not be deleted as long as service connection is indicated.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>Patient File @SERVICE CONNECTED PERCENTAGE 2-.302</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1631,11 +1489,50 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedElements</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>2-.302</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringRangeRatioSampledDataAttachmenttimedateTimePeriod</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1645,6 +1542,146 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t>SERVICE CONNECTED PERCENTAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>If this applicant is service connected (SERVICE CONNECTED prompt must be answered YES) enter the service connected percentage [a number between 0-100].  Once eligibility has been verified only users who hold the designated security key may enter/edit this field.  Field may not be deleted as long as service connection is indicated.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>Patient File @SERVICE CONNECTED PERCENTAGE 2-.302</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1814,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP84"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1823,7 +1860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.93359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5632,19 +5669,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5681,14 +5718,14 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>288</v>
@@ -5700,31 +5737,31 @@
         <v>57</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -5732,7 +5769,7 @@
         <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>46</v>
@@ -5757,16 +5794,16 @@
         <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5824,36 +5861,36 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5971,7 +6008,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6091,7 +6128,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6213,7 +6250,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6331,7 +6368,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6451,7 +6488,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6493,7 +6530,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>46</v>
@@ -6573,7 +6610,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6693,14 +6730,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>44</v>
@@ -6721,10 +6758,10 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
@@ -6792,7 +6829,7 @@
         <v>46</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>46</v>
@@ -6815,7 +6852,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6935,7 +6972,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7057,7 +7094,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7179,11 +7216,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>46</v>
       </c>
@@ -7201,22 +7236,22 @@
         <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>46</v>
@@ -7241,13 +7276,13 @@
         <v>46</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>46</v>
@@ -7265,7 +7300,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7274,40 +7309,40 @@
         <v>57</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AL45" t="s" s="2">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7326,16 +7361,18 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
       </c>
@@ -7359,13 +7396,13 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7383,7 +7420,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7404,35 +7441,35 @@
         <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>46</v>
@@ -7444,18 +7481,18 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7491,25 +7528,25 @@
         <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>46</v>
@@ -7521,16 +7558,16 @@
         <v>46</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>343</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7539,17 +7576,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="D48" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7557,29 +7592,27 @@
         <v>57</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>46</v>
       </c>
@@ -7603,13 +7636,13 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
@@ -7627,7 +7660,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7642,30 +7675,30 @@
         <v>46</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7682,32 +7715,30 @@
         <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>46</v>
       </c>
@@ -7727,13 +7758,13 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7751,7 +7782,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7775,10 +7806,10 @@
         <v>46</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7787,9 +7818,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7803,33 +7834,33 @@
         <v>57</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>46</v>
@@ -7871,7 +7902,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7892,24 +7923,24 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>46</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7929,21 +7960,21 @@
         <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>46</v>
       </c>
@@ -7991,7 +8022,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -8000,7 +8031,7 @@
         <v>57</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>46</v>
@@ -8012,24 +8043,24 @@
         <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>46</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8040,38 +8071,38 @@
         <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>46</v>
@@ -8113,19 +8144,19 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>46</v>
@@ -8137,10 +8168,10 @@
         <v>46</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -8151,7 +8182,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8174,20 +8205,16 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>46</v>
       </c>
@@ -8211,13 +8238,13 @@
         <v>46</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>46</v>
@@ -8235,7 +8262,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8244,7 +8271,7 @@
         <v>57</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>46</v>
@@ -8253,16 +8280,16 @@
         <v>46</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8273,18 +8300,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>46</v>
@@ -8296,18 +8323,18 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>46</v>
       </c>
@@ -8331,13 +8358,13 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8355,13 +8382,13 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>373</v>
+        <v>179</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>46</v>
@@ -8376,58 +8403,58 @@
         <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>381</v>
+        <v>46</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>382</v>
+        <v>173</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>383</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>385</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>46</v>
       </c>
@@ -8475,13 +8502,13 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>46</v>
@@ -8493,16 +8520,16 @@
         <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8513,7 +8540,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8536,17 +8563,15 @@
         <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>46</v>
@@ -8571,13 +8596,13 @@
         <v>46</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>46</v>
@@ -8595,7 +8620,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8604,7 +8629,7 @@
         <v>57</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>46</v>
@@ -8616,24 +8641,24 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>397</v>
+        <v>46</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8656,20 +8681,16 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>46</v>
       </c>
@@ -8693,58 +8714,58 @@
         <v>46</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>406</v>
+        <v>46</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8755,7 +8776,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8778,18 +8799,20 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>46</v>
       </c>
@@ -8813,13 +8836,13 @@
         <v>46</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>46</v>
+        <v>413</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>46</v>
+        <v>414</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>46</v>
@@ -8837,7 +8860,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8864,18 +8887,18 @@
         <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>418</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8886,7 +8909,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>46</v>
@@ -8898,18 +8921,20 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>46</v>
       </c>
@@ -8933,13 +8958,13 @@
         <v>46</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>46</v>
+        <v>422</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>46</v>
@@ -8957,13 +8982,13 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>46</v>
@@ -8978,24 +9003,24 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>427</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9006,7 +9031,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>46</v>
@@ -9018,19 +9043,17 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -9079,19 +9102,19 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>434</v>
+        <v>46</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>46</v>
@@ -9103,10 +9126,10 @@
         <v>46</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>435</v>
+        <v>46</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -9117,7 +9140,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9143,10 +9166,10 @@
         <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>170</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>171</v>
+        <v>432</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9197,7 +9220,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>172</v>
+        <v>430</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9221,10 +9244,10 @@
         <v>46</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>173</v>
+        <v>433</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9235,11 +9258,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9255,21 +9278,23 @@
         <v>46</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>103</v>
+        <v>383</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>104</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>175</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>46</v>
       </c>
@@ -9317,7 +9342,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>179</v>
+        <v>434</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9329,7 +9354,7 @@
         <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>46</v>
@@ -9341,10 +9366,10 @@
         <v>46</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>173</v>
+        <v>441</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9355,40 +9380,38 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>46</v>
@@ -9437,13 +9460,13 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>442</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>46</v>
@@ -9464,7 +9487,7 @@
         <v>46</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9479,14 +9502,14 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>46</v>
@@ -9498,15 +9521,17 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9555,16 +9580,16 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>179</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>46</v>
@@ -9579,10 +9604,10 @@
         <v>46</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>448</v>
+        <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>173</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9593,38 +9618,40 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9673,16 +9700,16 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>46</v>
@@ -9697,10 +9724,10 @@
         <v>46</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>46</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
@@ -9711,7 +9738,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9734,19 +9761,19 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>46</v>
@@ -9771,13 +9798,13 @@
         <v>46</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>46</v>
@@ -9795,7 +9822,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9816,13 +9843,13 @@
         <v>46</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>462</v>
+        <v>100</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9833,7 +9860,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9841,10 +9868,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>46</v>
@@ -9856,20 +9883,16 @@
         <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>144</v>
+        <v>454</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>46</v>
       </c>
@@ -9893,13 +9916,13 @@
         <v>46</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>468</v>
+        <v>46</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>46</v>
@@ -9917,13 +9940,13 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>46</v>
@@ -9938,13 +9961,13 @@
         <v>46</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>462</v>
+        <v>46</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>382</v>
+        <v>457</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9955,7 +9978,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9966,7 +9989,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>46</v>
@@ -9975,20 +9998,22 @@
         <v>46</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>46</v>
@@ -10037,19 +10062,19 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>46</v>
@@ -10061,10 +10086,10 @@
         <v>46</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>46</v>
+        <v>463</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -10075,7 +10100,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10101,10 +10126,10 @@
         <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>477</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>171</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10155,7 +10180,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10179,10 +10204,10 @@
         <v>46</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>448</v>
+        <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>479</v>
+        <v>173</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10193,11 +10218,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10213,23 +10238,21 @@
         <v>46</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>429</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>481</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>46</v>
       </c>
@@ -10277,7 +10300,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10289,7 +10312,7 @@
         <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>46</v>
@@ -10301,10 +10324,10 @@
         <v>46</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>173</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10315,38 +10338,40 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>46</v>
@@ -10395,13 +10420,13 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>46</v>
@@ -10422,7 +10447,7 @@
         <v>46</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>46</v>
@@ -10433,18 +10458,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>46</v>
@@ -10453,21 +10478,21 @@
         <v>46</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>46</v>
       </c>
@@ -10491,13 +10516,13 @@
         <v>46</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>46</v>
@@ -10515,13 +10540,13 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>179</v>
+        <v>468</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>46</v>
@@ -10536,16 +10561,16 @@
         <v>46</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>46</v>
+        <v>471</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>46</v>
@@ -10553,40 +10578,38 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>46</v>
@@ -10635,13 +10658,13 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>442</v>
+        <v>172</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>46</v>
@@ -10662,7 +10685,7 @@
         <v>46</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>46</v>
@@ -10673,18 +10696,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>46</v>
@@ -10696,20 +10719,18 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>493</v>
+        <v>175</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>46</v>
       </c>
@@ -10733,37 +10754,37 @@
         <v>46</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>496</v>
+        <v>46</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>497</v>
+        <v>46</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>491</v>
+        <v>179</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>46</v>
@@ -10781,10 +10802,10 @@
         <v>46</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10795,7 +10816,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10803,10 +10824,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>46</v>
@@ -10815,19 +10836,23 @@
         <v>46</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>500</v>
+        <v>181</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>501</v>
+        <v>182</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>46</v>
       </c>
@@ -10875,13 +10900,13 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>499</v>
+        <v>186</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>46</v>
@@ -10899,10 +10924,10 @@
         <v>46</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10913,7 +10938,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10924,7 +10949,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>46</v>
@@ -10933,23 +10958,19 @@
         <v>46</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>429</v>
+        <v>169</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>505</v>
+        <v>170</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>46</v>
       </c>
@@ -10997,19 +11018,19 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>504</v>
+        <v>172</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>46</v>
@@ -11021,10 +11042,10 @@
         <v>46</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>509</v>
+        <v>46</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>510</v>
+        <v>173</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -11035,18 +11056,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>46</v>
@@ -11058,15 +11079,17 @@
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -11103,25 +11126,25 @@
         <v>46</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>46</v>
@@ -11151,49 +11174,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>46</v>
+        <v>478</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>46</v>
@@ -11235,13 +11260,13 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>46</v>
@@ -11259,10 +11284,10 @@
         <v>46</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11273,39 +11298,39 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>58</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>441</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11355,13 +11380,13 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>442</v>
+        <v>204</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>46</v>
@@ -11379,10 +11404,10 @@
         <v>46</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11391,9 +11416,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11401,13 +11426,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>57</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>46</v>
@@ -11416,24 +11441,24 @@
         <v>58</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>515</v>
+        <v>208</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>516</v>
+        <v>209</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>46</v>
+        <v>481</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>46</v>
@@ -11451,13 +11476,13 @@
         <v>46</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>46</v>
@@ -11475,10 +11500,10 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>514</v>
+        <v>212</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>57</v>
@@ -11496,16 +11521,16 @@
         <v>46</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>517</v>
+        <v>46</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>46</v>
@@ -11513,7 +11538,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11536,19 +11561,17 @@
         <v>58</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>519</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>520</v>
+        <v>216</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11597,7 +11620,7 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>518</v>
+        <v>219</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11618,24 +11641,24 @@
         <v>46</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>522</v>
+        <v>46</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11655,22 +11678,22 @@
         <v>46</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>524</v>
+        <v>224</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
+        <v>226</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11695,13 +11718,13 @@
         <v>46</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>46</v>
@@ -11719,7 +11742,7 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>523</v>
+        <v>228</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11728,7 +11751,7 @@
         <v>57</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>46</v>
@@ -11743,10 +11766,10 @@
         <v>46</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11757,11 +11780,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11777,22 +11800,22 @@
         <v>46</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>527</v>
+        <v>234</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11817,13 +11840,13 @@
         <v>46</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>46</v>
@@ -11841,7 +11864,7 @@
         <v>46</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
@@ -11862,24 +11885,24 @@
         <v>46</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>382</v>
+        <v>238</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>383</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11890,7 +11913,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>46</v>
@@ -11899,22 +11922,22 @@
         <v>46</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>486</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>433</v>
+        <v>292</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
@@ -11951,56 +11974,1392 @@
         <v>46</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AF84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG84" t="s" s="2">
+      <c r="AO91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP84" t="s" s="2">
+      <c r="G95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP84">
+  <autoFilter ref="A1:AP95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12010,7 +13369,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
